--- a/public/files/damage_variable_format.xlsx
+++ b/public/files/damage_variable_format.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanf\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanf\Desktop\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E0F5C8-6526-4E6E-8B53-1BC02F10F3A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6EEF25C-A599-4230-8A81-849D507D6305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C3DB0ADD-626F-4EA4-9DDD-06E1B7C0644D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="59">
   <si>
     <t>Scale Index Of CaCO3</t>
   </si>
@@ -152,12 +152,6 @@
     </r>
   </si>
   <si>
-    <t>Each added index must contain on its row the corresponding "Well" and "Formation" names.</t>
-  </si>
-  <si>
-    <t>Each added index must have "Value" and "Monitoring Date". "Comment" field is optional.</t>
-  </si>
-  <si>
     <t>Avoid typing "space" characters at the end and begging of each data input.</t>
   </si>
   <si>
@@ -243,6 +237,54 @@
   </si>
   <si>
     <t>HERE AN EXAMPLE</t>
+  </si>
+  <si>
+    <t>APIAY-10</t>
+  </si>
+  <si>
+    <t>GUADALUPE</t>
+  </si>
+  <si>
+    <t>23/04/2017</t>
+  </si>
+  <si>
+    <t>23/04/2018</t>
+  </si>
+  <si>
+    <t>23/04/2019</t>
+  </si>
+  <si>
+    <t>Mi comentario 3</t>
+  </si>
+  <si>
+    <t>APIAY-13</t>
+  </si>
+  <si>
+    <t>APIAY-14</t>
+  </si>
+  <si>
+    <t>SAN FERNANDO</t>
+  </si>
+  <si>
+    <t>23/04/2020</t>
+  </si>
+  <si>
+    <t>23/04/2021</t>
+  </si>
+  <si>
+    <t>23/04/2022</t>
+  </si>
+  <si>
+    <t>Mi comentario 5</t>
+  </si>
+  <si>
+    <t>Each added subparameter must contain on its row the corresponding "Well" and "Formation" names.</t>
+  </si>
+  <si>
+    <t>Each added subparameter must have "Value" and "Monitoring Date". "Comment" field is optional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Well and Formation names must be written exactly as shown in IFDM Database. </t>
   </si>
 </sst>
 </file>
@@ -420,7 +462,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -431,9 +473,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -446,6 +485,45 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -455,37 +533,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -851,9 +899,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01DAAC6D-0BFF-4516-9278-C8FCBFCAACB1}">
-  <dimension ref="B2:T15"/>
+  <dimension ref="B2:T17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -862,95 +912,101 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:20" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="T2" s="24" t="s">
-        <v>44</v>
+      <c r="T2" s="20" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>1</v>
       </c>
       <c r="D4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B5" s="7"/>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B6" s="7">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B7" s="7">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B8" s="7">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B5" s="8">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B9" s="7">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B6" s="8">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B10" s="7">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B11" s="7">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B7" s="8">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B12" s="7">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B8" s="8">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B13" s="7">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B14" s="7">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B9" s="8">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B10" s="8">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B11" s="8">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B12" s="8">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="8">
-        <v>10</v>
-      </c>
-      <c r="D13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="26" t="s">
         <v>28</v>
       </c>
     </row>
@@ -963,112 +1019,204 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12E0E0E3-C76E-48E1-8909-3E6BA03FE236}">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="21" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" style="17" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="8" style="21" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" style="23" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="22" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" style="21" customWidth="1"/>
-    <col min="7" max="7" width="18" style="23" customWidth="1"/>
-    <col min="8" max="8" width="12" style="22" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" style="21" customWidth="1"/>
-    <col min="10" max="10" width="18.42578125" style="23" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" style="22" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" style="21" customWidth="1"/>
-    <col min="13" max="13" width="17.28515625" style="23" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" style="22" customWidth="1"/>
-    <col min="15" max="15" width="8.28515625" style="21" customWidth="1"/>
-    <col min="16" max="16" width="17.28515625" style="23" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" style="22" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="18" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="18" style="19" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" style="18" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="17" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" style="19" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" style="18" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" style="17" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" style="19" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" style="18" customWidth="1"/>
+    <col min="15" max="15" width="8.28515625" style="17" customWidth="1"/>
+    <col min="16" max="16" width="17.28515625" style="19" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" style="18" customWidth="1"/>
     <col min="18" max="16384" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="2" customFormat="1" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11" t="s">
+      <c r="A1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="11" t="s">
+      <c r="D1" s="24"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="12"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="11" t="s">
+      <c r="G1" s="24"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="11" t="s">
+      <c r="J1" s="24"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="12"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="11" t="s">
+      <c r="M1" s="24"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="13"/>
-    </row>
-    <row r="2" spans="1:17" s="20" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="M2" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="N2" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="P2" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q2" s="16" t="s">
-        <v>5</v>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="25"/>
+    </row>
+    <row r="2" spans="1:17" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="17">
+        <v>1.2</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="17">
+        <v>1.3</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="17">
+        <v>1.4</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="17">
+        <v>1.6</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="17">
+        <v>1.7</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1113,84 +1261,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="2" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="11" t="s">
+      <c r="A1" s="8"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="11" t="s">
+      <c r="D1" s="24"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="12"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="11" t="s">
+      <c r="G1" s="24"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="11" t="s">
+      <c r="J1" s="24"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="12"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="11" t="s">
+      <c r="M1" s="24"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="13"/>
-    </row>
-    <row r="2" spans="1:17" s="17" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="M2" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="N2" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="P2" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q2" s="16" t="s">
+      <c r="P1" s="24"/>
+      <c r="Q1" s="25"/>
+    </row>
+    <row r="2" spans="1:17" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q2" s="12" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1216,105 +1364,105 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="21" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" style="17" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9" style="21" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" style="23" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="22" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" style="21" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" style="23" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="22" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="21" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" style="23" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" style="22" customWidth="1"/>
-    <col min="12" max="12" width="9" style="21" customWidth="1"/>
-    <col min="13" max="13" width="17.85546875" style="23" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" style="22" customWidth="1"/>
-    <col min="15" max="15" width="9.42578125" style="21" customWidth="1"/>
-    <col min="16" max="16" width="17.42578125" style="23" customWidth="1"/>
-    <col min="17" max="17" width="12.42578125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="9" style="17" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="19" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="18" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" style="19" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="18" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="17" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" style="19" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" style="18" customWidth="1"/>
+    <col min="12" max="12" width="9" style="17" customWidth="1"/>
+    <col min="13" max="13" width="17.85546875" style="19" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" style="18" customWidth="1"/>
+    <col min="15" max="15" width="9.42578125" style="17" customWidth="1"/>
+    <col min="16" max="16" width="17.42578125" style="19" customWidth="1"/>
+    <col min="17" max="17" width="12.42578125" style="18" customWidth="1"/>
     <col min="18" max="16384" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="2" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11" t="s">
+      <c r="A1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="11" t="s">
+      <c r="D1" s="24"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="12"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="11" t="s">
+      <c r="G1" s="24"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="11" t="s">
+      <c r="J1" s="24"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="12"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="11" t="s">
+      <c r="M1" s="24"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="13"/>
-    </row>
-    <row r="2" spans="1:17" s="20" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="M2" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="N2" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="P2" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q2" s="16" t="s">
+      <c r="P1" s="24"/>
+      <c r="Q1" s="25"/>
+    </row>
+    <row r="2" spans="1:17" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q2" s="12" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1339,105 +1487,105 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="21" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="17" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="21" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="12" style="22" customWidth="1"/>
-    <col min="6" max="6" width="9" style="21" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" style="23" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="22" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" style="21" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" style="23" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" style="22" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" style="21" customWidth="1"/>
-    <col min="13" max="13" width="18" style="23" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" style="22" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" style="21" customWidth="1"/>
-    <col min="16" max="16" width="17.5703125" style="23" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" style="22" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="12" style="18" customWidth="1"/>
+    <col min="6" max="6" width="9" style="17" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" style="19" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="18" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" style="17" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" style="19" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" style="18" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" style="17" customWidth="1"/>
+    <col min="13" max="13" width="18" style="19" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" style="18" customWidth="1"/>
+    <col min="15" max="15" width="8.140625" style="17" customWidth="1"/>
+    <col min="16" max="16" width="17.5703125" style="19" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" style="18" customWidth="1"/>
     <col min="18" max="16384" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="2" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11" t="s">
+      <c r="A1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="11" t="s">
+      <c r="D1" s="24"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="12"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="11" t="s">
+      <c r="G1" s="24"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="11" t="s">
+      <c r="J1" s="24"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="12"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="11" t="s">
+      <c r="M1" s="24"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="13"/>
-    </row>
-    <row r="2" spans="1:17" s="20" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="M2" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="N2" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="P2" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q2" s="16" t="s">
+      <c r="P1" s="24"/>
+      <c r="Q1" s="25"/>
+    </row>
+    <row r="2" spans="1:17" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q2" s="12" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1462,100 +1610,100 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="21" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" style="17" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" style="21" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" style="23" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="22" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="21" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" style="23" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" style="22" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" style="21" customWidth="1"/>
-    <col min="10" max="10" width="18" style="23" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" style="22" customWidth="1"/>
-    <col min="12" max="12" width="10" style="21" customWidth="1"/>
-    <col min="13" max="13" width="18.140625" style="23" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" style="22" customWidth="1"/>
-    <col min="15" max="15" width="5.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.140625" style="23"/>
+    <col min="3" max="3" width="9.5703125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" style="19" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="18" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="17" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" style="19" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="18" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" style="17" customWidth="1"/>
+    <col min="10" max="10" width="18" style="19" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" style="18" customWidth="1"/>
+    <col min="12" max="12" width="10" style="17" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" style="19" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" style="18" customWidth="1"/>
+    <col min="15" max="15" width="5.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.140625" style="19"/>
     <col min="19" max="16384" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="2" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11" t="s">
+      <c r="A1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="11" t="s">
+      <c r="D1" s="24"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="12"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="11" t="s">
+      <c r="G1" s="24"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="11" t="s">
+      <c r="J1" s="24"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="12"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
     </row>
     <row r="2" spans="1:17" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="M2" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="N2" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
+      <c r="A2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1577,100 +1725,100 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" style="21" customWidth="1"/>
+    <col min="1" max="1" width="11" style="17" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="21" customWidth="1"/>
-    <col min="4" max="4" width="18" style="23" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="22" customWidth="1"/>
-    <col min="6" max="6" width="10" style="21" customWidth="1"/>
-    <col min="7" max="7" width="18" style="23" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" style="22" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" style="21" customWidth="1"/>
-    <col min="10" max="10" width="17.5703125" style="23" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="22" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" style="21" customWidth="1"/>
-    <col min="13" max="13" width="19" style="23" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="22" customWidth="1"/>
-    <col min="15" max="15" width="5.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.140625" style="23"/>
+    <col min="3" max="3" width="9.42578125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="18" style="19" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="18" customWidth="1"/>
+    <col min="6" max="6" width="10" style="17" customWidth="1"/>
+    <col min="7" max="7" width="18" style="19" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" style="18" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" style="17" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" style="19" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="18" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" style="17" customWidth="1"/>
+    <col min="13" max="13" width="19" style="19" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" style="18" customWidth="1"/>
+    <col min="15" max="15" width="5.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.140625" style="19"/>
     <col min="19" max="16384" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="2" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11" t="s">
+      <c r="A1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="11" t="s">
+      <c r="D1" s="24"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="12"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="11" t="s">
+      <c r="G1" s="24"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="11" t="s">
+      <c r="J1" s="24"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="12"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
     </row>
     <row r="2" spans="1:17" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="M2" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="N2" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
+      <c r="A2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/public/files/damage_variable_format.xlsx
+++ b/public/files/damage_variable_format.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanf\Desktop\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ifdm\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6EEF25C-A599-4230-8A81-849D507D6305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92BEB4B-EFC2-49F4-AE18-935A2BE070DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C3DB0ADD-626F-4EA4-9DDD-06E1B7C0644D}"/>
   </bookViews>
@@ -462,14 +462,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -479,62 +473,72 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -901,26 +905,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01DAAC6D-0BFF-4516-9278-C8FCBFCAACB1}">
   <dimension ref="B2:T17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="3.140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="3.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:20" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="T2" s="20" t="s">
+      <c r="T2" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B4" s="7">
+      <c r="B4" s="3">
         <v>1</v>
       </c>
       <c r="D4" t="s">
@@ -928,13 +930,13 @@
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B5" s="7"/>
+      <c r="B5" s="3"/>
       <c r="D5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B6" s="7">
+      <c r="B6" s="3">
         <v>2</v>
       </c>
       <c r="D6" t="s">
@@ -942,7 +944,7 @@
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B7" s="7">
+      <c r="B7" s="3">
         <v>3</v>
       </c>
       <c r="D7" t="s">
@@ -950,7 +952,7 @@
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B8" s="7">
+      <c r="B8" s="3">
         <v>4</v>
       </c>
       <c r="D8" t="s">
@@ -958,7 +960,7 @@
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B9" s="7">
+      <c r="B9" s="3">
         <v>5</v>
       </c>
       <c r="D9" t="s">
@@ -966,7 +968,7 @@
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B10" s="7">
+      <c r="B10" s="3">
         <v>6</v>
       </c>
       <c r="D10" t="s">
@@ -974,7 +976,7 @@
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B11" s="7">
+      <c r="B11" s="3">
         <v>7</v>
       </c>
       <c r="D11" t="s">
@@ -982,7 +984,7 @@
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B12" s="7">
+      <c r="B12" s="3">
         <v>8</v>
       </c>
       <c r="D12" t="s">
@@ -990,7 +992,7 @@
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="7">
+      <c r="B13" s="3">
         <v>9</v>
       </c>
       <c r="D13" t="s">
@@ -998,7 +1000,7 @@
       </c>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B14" s="7">
+      <c r="B14" s="3">
         <v>10</v>
       </c>
       <c r="D14" t="s">
@@ -1006,7 +1008,7 @@
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="5" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1021,201 +1023,199 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12E0E0E3-C76E-48E1-8909-3E6BA03FE236}">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="17" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" style="19" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="18" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" style="17" customWidth="1"/>
-    <col min="7" max="7" width="18" style="19" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" style="18" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" style="17" customWidth="1"/>
-    <col min="10" max="10" width="18.42578125" style="19" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" style="18" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" style="17" customWidth="1"/>
-    <col min="13" max="13" width="17.28515625" style="19" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" style="18" customWidth="1"/>
-    <col min="15" max="15" width="8.28515625" style="17" customWidth="1"/>
-    <col min="16" max="16" width="17.28515625" style="19" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" style="18" customWidth="1"/>
-    <col min="18" max="16384" width="11.42578125" style="5"/>
+    <col min="1" max="1" width="12.28515625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="13" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="15" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="18" style="15" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" style="16" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="13" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" style="15" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" style="16" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" style="13" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" style="15" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" style="16" customWidth="1"/>
+    <col min="15" max="15" width="8.28515625" style="13" customWidth="1"/>
+    <col min="16" max="16" width="17.28515625" style="15" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" style="16" customWidth="1"/>
+    <col min="18" max="16384" width="11.42578125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="23" t="s">
+    <row r="1" spans="1:17" s="8" customFormat="1" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="23" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="23" t="s">
+      <c r="G1" s="27"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="24"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="23" t="s">
+      <c r="J1" s="27"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="24"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="23" t="s">
+      <c r="M1" s="27"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="25"/>
-    </row>
-    <row r="2" spans="1:17" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="P1" s="27"/>
+      <c r="Q1" s="28"/>
+    </row>
+    <row r="2" spans="1:17" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>39</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="10" t="s">
+      <c r="E2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>39</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="10" t="s">
+      <c r="H2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>39</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="10" t="s">
+      <c r="K2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>39</v>
       </c>
       <c r="M2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="10" t="s">
+      <c r="N2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="9" t="s">
         <v>39</v>
       </c>
       <c r="P2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="Q2" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="13">
         <v>1.2</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="15" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="13">
         <v>1.3</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="15" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="13">
         <v>1.4</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="16" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="13">
         <v>1.5</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="13">
         <v>1.6</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="16" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="13">
         <v>1.7</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="15" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1241,104 +1241,105 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="8" style="3" customWidth="1"/>
-    <col min="10" max="10" width="18" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" style="4" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" style="3" customWidth="1"/>
-    <col min="13" max="13" width="17.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" style="4" customWidth="1"/>
-    <col min="15" max="15" width="8.42578125" style="3" customWidth="1"/>
-    <col min="16" max="16" width="19" style="1" customWidth="1"/>
-    <col min="17" max="17" width="13" style="4" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" style="21" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="22" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" style="21" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="22" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" style="21" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" style="23" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="22" customWidth="1"/>
+    <col min="9" max="9" width="8" style="21" customWidth="1"/>
+    <col min="10" max="10" width="18" style="23" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" style="22" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="21" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" style="23" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" style="22" customWidth="1"/>
+    <col min="15" max="15" width="8.42578125" style="21" customWidth="1"/>
+    <col min="16" max="16" width="19" style="23" customWidth="1"/>
+    <col min="17" max="17" width="13" style="22" customWidth="1"/>
+    <col min="18" max="16384" width="11.42578125" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="23" t="s">
+    <row r="1" spans="1:17" s="8" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="23" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="23" t="s">
+      <c r="G1" s="27"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="24"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="23" t="s">
+      <c r="J1" s="27"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="24"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="23" t="s">
+      <c r="M1" s="27"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="25"/>
-    </row>
-    <row r="2" spans="1:17" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="P1" s="27"/>
+      <c r="Q1" s="28"/>
+    </row>
+    <row r="2" spans="1:17" s="20" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>39</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="10" t="s">
+      <c r="E2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>39</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="10" t="s">
+      <c r="H2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>39</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="10" t="s">
+      <c r="K2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>39</v>
       </c>
       <c r="M2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="10" t="s">
+      <c r="N2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="9" t="s">
         <v>39</v>
       </c>
       <c r="P2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="Q2" s="10" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1364,105 +1365,105 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9" style="17" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" style="19" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="18" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" style="17" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" style="19" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="18" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="17" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" style="19" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" style="18" customWidth="1"/>
-    <col min="12" max="12" width="9" style="17" customWidth="1"/>
-    <col min="13" max="13" width="17.85546875" style="19" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" style="18" customWidth="1"/>
-    <col min="15" max="15" width="9.42578125" style="17" customWidth="1"/>
-    <col min="16" max="16" width="17.42578125" style="19" customWidth="1"/>
-    <col min="17" max="17" width="12.42578125" style="18" customWidth="1"/>
-    <col min="18" max="16384" width="11.42578125" style="5"/>
+    <col min="1" max="1" width="9.28515625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="9" style="13" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="15" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="16" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" style="15" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="16" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="13" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" style="15" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" style="16" customWidth="1"/>
+    <col min="12" max="12" width="9" style="13" customWidth="1"/>
+    <col min="13" max="13" width="17.85546875" style="15" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" style="16" customWidth="1"/>
+    <col min="15" max="15" width="9.42578125" style="13" customWidth="1"/>
+    <col min="16" max="16" width="17.42578125" style="15" customWidth="1"/>
+    <col min="17" max="17" width="12.42578125" style="16" customWidth="1"/>
+    <col min="18" max="16384" width="11.42578125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="23" t="s">
+    <row r="1" spans="1:17" s="8" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="23" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="23" t="s">
+      <c r="G1" s="27"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="24"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="23" t="s">
+      <c r="J1" s="27"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="24"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="23" t="s">
+      <c r="M1" s="27"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="25"/>
-    </row>
-    <row r="2" spans="1:17" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="P1" s="27"/>
+      <c r="Q1" s="28"/>
+    </row>
+    <row r="2" spans="1:17" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>39</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="10" t="s">
+      <c r="E2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>39</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="10" t="s">
+      <c r="H2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>39</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="10" t="s">
+      <c r="K2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>39</v>
       </c>
       <c r="M2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="10" t="s">
+      <c r="N2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="9" t="s">
         <v>39</v>
       </c>
       <c r="P2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="Q2" s="10" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1487,105 +1488,105 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="17" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" style="19" customWidth="1"/>
-    <col min="5" max="5" width="12" style="18" customWidth="1"/>
-    <col min="6" max="6" width="9" style="17" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" style="19" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="18" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" style="17" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" style="19" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" style="18" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" style="17" customWidth="1"/>
-    <col min="13" max="13" width="18" style="19" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" style="18" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" style="17" customWidth="1"/>
-    <col min="16" max="16" width="17.5703125" style="19" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" style="18" customWidth="1"/>
-    <col min="18" max="16384" width="11.42578125" style="5"/>
+    <col min="1" max="1" width="10.7109375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="12" style="16" customWidth="1"/>
+    <col min="6" max="6" width="9" style="13" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" style="15" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="16" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" style="13" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" style="15" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" style="16" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" style="13" customWidth="1"/>
+    <col min="13" max="13" width="18" style="15" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" style="16" customWidth="1"/>
+    <col min="15" max="15" width="8.140625" style="13" customWidth="1"/>
+    <col min="16" max="16" width="17.5703125" style="15" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" style="16" customWidth="1"/>
+    <col min="18" max="16384" width="11.42578125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="23" t="s">
+    <row r="1" spans="1:17" s="8" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="23" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="23" t="s">
+      <c r="G1" s="27"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="24"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="23" t="s">
+      <c r="J1" s="27"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="24"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="23" t="s">
+      <c r="M1" s="27"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="25"/>
-    </row>
-    <row r="2" spans="1:17" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="P1" s="27"/>
+      <c r="Q1" s="28"/>
+    </row>
+    <row r="2" spans="1:17" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>39</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="10" t="s">
+      <c r="E2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>39</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="10" t="s">
+      <c r="H2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>39</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="10" t="s">
+      <c r="K2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>39</v>
       </c>
       <c r="M2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="10" t="s">
+      <c r="N2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="9" t="s">
         <v>39</v>
       </c>
       <c r="P2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="Q2" s="10" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1610,100 +1611,100 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" style="19" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="18" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="17" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" style="19" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" style="18" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" style="17" customWidth="1"/>
-    <col min="10" max="10" width="18" style="19" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" style="18" customWidth="1"/>
-    <col min="12" max="12" width="10" style="17" customWidth="1"/>
-    <col min="13" max="13" width="18.140625" style="19" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" style="18" customWidth="1"/>
-    <col min="15" max="15" width="5.5703125" style="19" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.140625" style="19"/>
-    <col min="19" max="16384" width="11.42578125" style="5"/>
+    <col min="1" max="1" width="11.140625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" style="15" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="16" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="13" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" style="15" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="16" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" style="13" customWidth="1"/>
+    <col min="10" max="10" width="18" style="15" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" style="16" customWidth="1"/>
+    <col min="12" max="12" width="10" style="13" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" style="15" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" style="16" customWidth="1"/>
+    <col min="15" max="15" width="5.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.140625" style="15"/>
+    <col min="19" max="16384" width="11.42578125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="23" t="s">
+    <row r="1" spans="1:17" s="8" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="23" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="23" t="s">
+      <c r="G1" s="27"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="24"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="23" t="s">
+      <c r="J1" s="27"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="24"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-    </row>
-    <row r="2" spans="1:17" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="M1" s="27"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+    </row>
+    <row r="2" spans="1:17" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>39</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="10" t="s">
+      <c r="E2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>39</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="10" t="s">
+      <c r="H2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>39</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="10" t="s">
+      <c r="K2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>39</v>
       </c>
       <c r="M2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
+      <c r="N2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1725,100 +1726,100 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" style="17" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="18" style="19" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="18" customWidth="1"/>
-    <col min="6" max="6" width="10" style="17" customWidth="1"/>
-    <col min="7" max="7" width="18" style="19" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" style="18" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" style="17" customWidth="1"/>
-    <col min="10" max="10" width="17.5703125" style="19" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="18" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" style="17" customWidth="1"/>
-    <col min="13" max="13" width="19" style="19" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="18" customWidth="1"/>
-    <col min="15" max="15" width="5.5703125" style="19" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.140625" style="19"/>
-    <col min="19" max="16384" width="11.42578125" style="5"/>
+    <col min="1" max="1" width="11" style="13" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="18" style="15" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="10" style="13" customWidth="1"/>
+    <col min="7" max="7" width="18" style="15" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" style="16" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" style="13" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" style="15" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="16" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" style="13" customWidth="1"/>
+    <col min="13" max="13" width="19" style="15" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" style="16" customWidth="1"/>
+    <col min="15" max="15" width="5.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.140625" style="15"/>
+    <col min="19" max="16384" width="11.42578125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="23" t="s">
+    <row r="1" spans="1:17" s="8" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="23" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="23" t="s">
+      <c r="G1" s="27"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="24"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="23" t="s">
+      <c r="J1" s="27"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="24"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-    </row>
-    <row r="2" spans="1:17" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="M1" s="27"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+    </row>
+    <row r="2" spans="1:17" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>39</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="10" t="s">
+      <c r="E2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>39</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="10" t="s">
+      <c r="H2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>39</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="10" t="s">
+      <c r="K2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>39</v>
       </c>
       <c r="M2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
+      <c r="N2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/public/files/damage_variable_format.xlsx
+++ b/public/files/damage_variable_format.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ifdm\public\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanf\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92BEB4B-EFC2-49F4-AE18-935A2BE070DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F0C19B-9793-4B66-B074-2273C76D17F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C3DB0ADD-626F-4EA4-9DDD-06E1B7C0644D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="64">
   <si>
     <t>Scale Index Of CaCO3</t>
   </si>
@@ -285,6 +285,21 @@
   </si>
   <si>
     <t xml:space="preserve">Well and Formation names must be written exactly as shown in IFDM Database. </t>
+  </si>
+  <si>
+    <t>MS1</t>
+  </si>
+  <si>
+    <t>MS2</t>
+  </si>
+  <si>
+    <t>MS3</t>
+  </si>
+  <si>
+    <t>MS4</t>
+  </si>
+  <si>
+    <t>MS5</t>
   </si>
 </sst>
 </file>
@@ -373,7 +388,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -458,11 +473,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -482,9 +519,6 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -506,29 +540,16 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -539,6 +560,18 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1021,206 +1054,240 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12E0E0E3-C76E-48E1-8909-3E6BA03FE236}">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="13" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" style="15" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="16" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="18" style="15" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" style="16" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" style="13" customWidth="1"/>
-    <col min="10" max="10" width="18.42578125" style="15" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" style="16" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" style="13" customWidth="1"/>
-    <col min="13" max="13" width="17.28515625" style="15" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" style="16" customWidth="1"/>
-    <col min="15" max="15" width="8.28515625" style="13" customWidth="1"/>
-    <col min="16" max="16" width="17.28515625" style="15" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" style="16" customWidth="1"/>
-    <col min="18" max="16384" width="11.42578125" style="14"/>
+    <col min="1" max="1" width="12.28515625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="13" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="14" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="18" style="13" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" style="14" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="12" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" style="13" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" style="14" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" style="12" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" style="13" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" style="14" customWidth="1"/>
+    <col min="15" max="15" width="8.28515625" style="12" customWidth="1"/>
+    <col min="16" max="16" width="17.28515625" style="13" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" style="14" customWidth="1"/>
+    <col min="18" max="16384" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="8" customFormat="1" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="7" customFormat="1" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="26" t="s">
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="27"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="26" t="s">
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="27"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="26" t="s">
+      <c r="J1" s="21"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="27"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="26" t="s">
+      <c r="M1" s="21"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="28"/>
-    </row>
-    <row r="2" spans="1:17" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="P1" s="21"/>
+      <c r="Q1" s="22"/>
+    </row>
+    <row r="2" spans="1:17" s="7" customFormat="1" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="21"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="21"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="M2" s="21"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="22"/>
+    </row>
+    <row r="3" spans="1:17" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B3" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="P2" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q2" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="C3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C4" s="12">
         <v>1.2</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D4" s="13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C5" s="12">
         <v>1.3</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D5" s="13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B6" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C6" s="12">
         <v>1.4</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D6" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E6" s="14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F7" s="12">
         <v>1.5</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G7" s="13" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F8" s="12">
         <v>1.6</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G8" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H8" s="14" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F9" s="12">
         <v>1.7</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G9" s="13" t="s">
         <v>54</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="10">
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
     <mergeCell ref="O1:Q1"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
@@ -1235,116 +1302,140 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89AAF3C8-C4BC-4D2A-B613-4C8B8B70D1E0}">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="21" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="22" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" style="21" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="22" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" style="21" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" style="23" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="22" customWidth="1"/>
-    <col min="9" max="9" width="8" style="21" customWidth="1"/>
-    <col min="10" max="10" width="18" style="23" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" style="22" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" style="21" customWidth="1"/>
-    <col min="13" max="13" width="17.28515625" style="23" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" style="22" customWidth="1"/>
-    <col min="15" max="15" width="8.42578125" style="21" customWidth="1"/>
-    <col min="16" max="16" width="19" style="23" customWidth="1"/>
-    <col min="17" max="17" width="13" style="22" customWidth="1"/>
-    <col min="18" max="16384" width="11.42578125" style="24"/>
+    <col min="1" max="1" width="15.140625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="17" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" style="16" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="18" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" style="18" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="17" customWidth="1"/>
+    <col min="9" max="9" width="8" style="16" customWidth="1"/>
+    <col min="10" max="10" width="18" style="18" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" style="17" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="16" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" style="18" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" style="17" customWidth="1"/>
+    <col min="15" max="15" width="8.42578125" style="16" customWidth="1"/>
+    <col min="16" max="16" width="19" style="18" customWidth="1"/>
+    <col min="17" max="17" width="13" style="17" customWidth="1"/>
+    <col min="18" max="16384" width="11.42578125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="8" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="7" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="26" t="s">
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="27"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="26" t="s">
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="27"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="26" t="s">
+      <c r="J1" s="21"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="27"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="26" t="s">
+      <c r="M1" s="21"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="28"/>
-    </row>
-    <row r="2" spans="1:17" s="20" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="P1" s="21"/>
+      <c r="Q1" s="22"/>
+    </row>
+    <row r="2" spans="1:17" s="7" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="22"/>
+    </row>
+    <row r="3" spans="1:17" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B3" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="P2" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q2" s="10" t="s">
+      <c r="C3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="10">
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
@@ -1359,116 +1450,140 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E35753-A558-4C76-9F16-B0FE9DF90C65}">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="14" customWidth="1"/>
-    <col min="3" max="3" width="9" style="13" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" style="15" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="16" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" style="15" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="16" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="13" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" style="15" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" style="16" customWidth="1"/>
-    <col min="12" max="12" width="9" style="13" customWidth="1"/>
-    <col min="13" max="13" width="17.85546875" style="15" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" style="16" customWidth="1"/>
-    <col min="15" max="15" width="9.42578125" style="13" customWidth="1"/>
-    <col min="16" max="16" width="17.42578125" style="15" customWidth="1"/>
-    <col min="17" max="17" width="12.42578125" style="16" customWidth="1"/>
-    <col min="18" max="16384" width="11.42578125" style="14"/>
+    <col min="1" max="1" width="9.28515625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="9" style="12" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="13" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="14" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" style="13" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="14" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="12" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" style="13" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" style="14" customWidth="1"/>
+    <col min="12" max="12" width="9" style="12" customWidth="1"/>
+    <col min="13" max="13" width="17.85546875" style="13" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" style="14" customWidth="1"/>
+    <col min="15" max="15" width="9.42578125" style="12" customWidth="1"/>
+    <col min="16" max="16" width="17.42578125" style="13" customWidth="1"/>
+    <col min="17" max="17" width="12.42578125" style="14" customWidth="1"/>
+    <col min="18" max="16384" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="8" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="7" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="26" t="s">
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="27"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="26" t="s">
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="27"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="26" t="s">
+      <c r="J1" s="21"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="27"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="26" t="s">
+      <c r="M1" s="21"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="28"/>
-    </row>
-    <row r="2" spans="1:17" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="P1" s="21"/>
+      <c r="Q1" s="22"/>
+    </row>
+    <row r="2" spans="1:17" s="7" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="22"/>
+    </row>
+    <row r="3" spans="1:17" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B3" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="P2" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q2" s="10" t="s">
+      <c r="C3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="10">
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
@@ -1482,116 +1597,140 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B74ED6-0D18-4484-9CEB-C4F04F1B981F}">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="13" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="14" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" style="15" customWidth="1"/>
-    <col min="5" max="5" width="12" style="16" customWidth="1"/>
-    <col min="6" max="6" width="9" style="13" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" style="15" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="16" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" style="13" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" style="15" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" style="16" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" style="13" customWidth="1"/>
-    <col min="13" max="13" width="18" style="15" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" style="16" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" style="13" customWidth="1"/>
-    <col min="16" max="16" width="17.5703125" style="15" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" style="16" customWidth="1"/>
-    <col min="18" max="16384" width="11.42578125" style="14"/>
+    <col min="1" max="1" width="10.7109375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="12" style="14" customWidth="1"/>
+    <col min="6" max="6" width="9" style="12" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" style="13" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="14" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" style="12" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" style="13" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" style="14" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" style="12" customWidth="1"/>
+    <col min="13" max="13" width="18" style="13" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" style="14" customWidth="1"/>
+    <col min="15" max="15" width="8.140625" style="12" customWidth="1"/>
+    <col min="16" max="16" width="17.5703125" style="13" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" style="14" customWidth="1"/>
+    <col min="18" max="16384" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="8" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="7" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="26" t="s">
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="27"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="26" t="s">
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="27"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="26" t="s">
+      <c r="J1" s="21"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="27"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="26" t="s">
+      <c r="M1" s="21"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="28"/>
-    </row>
-    <row r="2" spans="1:17" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="P1" s="21"/>
+      <c r="Q1" s="22"/>
+    </row>
+    <row r="2" spans="1:17" s="7" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="22"/>
+    </row>
+    <row r="3" spans="1:17" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B3" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="P2" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q2" s="10" t="s">
+      <c r="C3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="10">
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
@@ -1605,113 +1744,136 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E157364B-164D-468E-89FF-A51557B38215}">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="14" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" style="15" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="16" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="13" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" style="15" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" style="16" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" style="13" customWidth="1"/>
-    <col min="10" max="10" width="18" style="15" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" style="16" customWidth="1"/>
-    <col min="12" max="12" width="10" style="13" customWidth="1"/>
-    <col min="13" max="13" width="18.140625" style="15" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" style="16" customWidth="1"/>
-    <col min="15" max="15" width="5.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.140625" style="15"/>
-    <col min="19" max="16384" width="11.42578125" style="14"/>
+    <col min="1" max="1" width="11.140625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" style="13" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="14" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" style="12" customWidth="1"/>
+    <col min="10" max="10" width="18" style="13" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" style="14" customWidth="1"/>
+    <col min="12" max="12" width="10" style="12" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" style="13" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" style="14" customWidth="1"/>
+    <col min="15" max="15" width="5.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.140625" style="13"/>
+    <col min="19" max="16384" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="8" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="7" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="26" t="s">
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="27"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="26" t="s">
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="27"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="26" t="s">
+      <c r="J1" s="21"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="27"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-    </row>
-    <row r="2" spans="1:17" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="M1" s="21"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+    </row>
+    <row r="2" spans="1:17" s="7" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+    </row>
+    <row r="3" spans="1:17" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B3" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
+      <c r="C3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="L1:N1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1720,113 +1882,136 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C226A2B-D92F-4CFA-A9D0-2BF000D5BA2C}">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" style="13" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="14" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="18" style="15" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="16" customWidth="1"/>
-    <col min="6" max="6" width="10" style="13" customWidth="1"/>
-    <col min="7" max="7" width="18" style="15" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" style="16" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" style="13" customWidth="1"/>
-    <col min="10" max="10" width="17.5703125" style="15" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="16" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" style="13" customWidth="1"/>
-    <col min="13" max="13" width="19" style="15" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="16" customWidth="1"/>
-    <col min="15" max="15" width="5.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.140625" style="15"/>
-    <col min="19" max="16384" width="11.42578125" style="14"/>
+    <col min="1" max="1" width="11" style="12" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="18" style="13" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="14" customWidth="1"/>
+    <col min="6" max="6" width="10" style="12" customWidth="1"/>
+    <col min="7" max="7" width="18" style="13" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" style="14" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" style="12" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" style="13" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="14" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" style="12" customWidth="1"/>
+    <col min="13" max="13" width="19" style="13" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" style="14" customWidth="1"/>
+    <col min="15" max="15" width="5.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.140625" style="13"/>
+    <col min="19" max="16384" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="8" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="7" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="26" t="s">
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="27"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="26" t="s">
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="27"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="26" t="s">
+      <c r="J1" s="21"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="27"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-    </row>
-    <row r="2" spans="1:17" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="M1" s="21"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+    </row>
+    <row r="2" spans="1:17" s="7" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+    </row>
+    <row r="3" spans="1:17" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B3" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
+      <c r="C3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="L1:N1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/public/files/damage_variable_format.xlsx
+++ b/public/files/damage_variable_format.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanf\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ifdm\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F0C19B-9793-4B66-B074-2273C76D17F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D3559FD-1018-4684-AC62-CB35ABB152A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C3DB0ADD-626F-4EA4-9DDD-06E1B7C0644D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="87">
   <si>
     <t>Scale Index Of CaCO3</t>
   </si>
@@ -300,6 +300,75 @@
   </si>
   <si>
     <t>MS5</t>
+  </si>
+  <si>
+    <t>FB1</t>
+  </si>
+  <si>
+    <t>FB2</t>
+  </si>
+  <si>
+    <t>FB3</t>
+  </si>
+  <si>
+    <t>FB4</t>
+  </si>
+  <si>
+    <t>FB5</t>
+  </si>
+  <si>
+    <t>OS1</t>
+  </si>
+  <si>
+    <t>OS2</t>
+  </si>
+  <si>
+    <t>OS3</t>
+  </si>
+  <si>
+    <t>OS4</t>
+  </si>
+  <si>
+    <t>OS5</t>
+  </si>
+  <si>
+    <t>RP1</t>
+  </si>
+  <si>
+    <t>RP2</t>
+  </si>
+  <si>
+    <t>RP3</t>
+  </si>
+  <si>
+    <t>RP4</t>
+  </si>
+  <si>
+    <t>RP5</t>
+  </si>
+  <si>
+    <t>GP1</t>
+  </si>
+  <si>
+    <t>GP2</t>
+  </si>
+  <si>
+    <t>GP3</t>
+  </si>
+  <si>
+    <t>GP4</t>
+  </si>
+  <si>
+    <t>GD1</t>
+  </si>
+  <si>
+    <t>GD2</t>
+  </si>
+  <si>
+    <t>GD3</t>
+  </si>
+  <si>
+    <t>GD4</t>
   </si>
 </sst>
 </file>
@@ -552,26 +621,26 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1056,7 +1125,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12E0E0E3-C76E-48E1-8909-3E6BA03FE236}">
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1083,66 +1152,66 @@
     <row r="1" spans="1:17" s="7" customFormat="1" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6"/>
       <c r="B1" s="15"/>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="20" t="s">
+      <c r="D1" s="24"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="20" t="s">
+      <c r="G1" s="24"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="20" t="s">
+      <c r="J1" s="24"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="21"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="20" t="s">
+      <c r="M1" s="24"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="22"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="25"/>
     </row>
     <row r="2" spans="1:17" s="7" customFormat="1" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="21" t="s">
+      <c r="A2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="20" t="s">
+      <c r="D2" s="24"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="20" t="s">
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="J2" s="21"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="20" t="s">
+      <c r="J2" s="24"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="M2" s="21"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="20" t="s">
+      <c r="M2" s="24"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="22"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="25"/>
     </row>
     <row r="3" spans="1:17" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="21" t="s">
         <v>38</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -1283,16 +1352,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1304,7 +1373,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89AAF3C8-C4BC-4D2A-B613-4C8B8B70D1E0}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1331,56 +1400,66 @@
     <row r="1" spans="1:17" s="7" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6"/>
       <c r="B1" s="15"/>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="20" t="s">
+      <c r="D1" s="24"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="20" t="s">
+      <c r="G1" s="24"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="20" t="s">
+      <c r="J1" s="24"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="21"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="20" t="s">
+      <c r="M1" s="24"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="22"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="25"/>
     </row>
     <row r="2" spans="1:17" s="7" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="22"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="24"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" s="24"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="M2" s="24"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="25"/>
     </row>
     <row r="3" spans="1:17" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="21" t="s">
         <v>38</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -1431,16 +1510,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:Q1"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="O1:Q1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1452,7 +1531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E35753-A558-4C76-9F16-B0FE9DF90C65}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1479,56 +1558,66 @@
     <row r="1" spans="1:17" s="7" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6"/>
       <c r="B1" s="15"/>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="20" t="s">
+      <c r="D1" s="24"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="20" t="s">
+      <c r="G1" s="24"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="20" t="s">
+      <c r="J1" s="24"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="21"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="20" t="s">
+      <c r="M1" s="24"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="22"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="25"/>
     </row>
     <row r="2" spans="1:17" s="7" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="22"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="24"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" s="24"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="M2" s="24"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="25"/>
     </row>
     <row r="3" spans="1:17" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="21" t="s">
         <v>38</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -1579,16 +1668,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:Q1"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="O1:Q1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1599,7 +1688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B74ED6-0D18-4484-9CEB-C4F04F1B981F}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1626,56 +1715,66 @@
     <row r="1" spans="1:17" s="7" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6"/>
       <c r="B1" s="15"/>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="20" t="s">
+      <c r="D1" s="24"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="20" t="s">
+      <c r="G1" s="24"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="20" t="s">
+      <c r="J1" s="24"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="21"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="20" t="s">
+      <c r="M1" s="24"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="22"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="25"/>
     </row>
     <row r="2" spans="1:17" s="7" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="22"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="24"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="24"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="M2" s="24"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="25"/>
     </row>
     <row r="3" spans="1:17" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="21" t="s">
         <v>38</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -1726,16 +1825,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:Q1"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="O1:Q1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1746,7 +1845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E157364B-164D-468E-89FF-A51557B38215}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1774,54 +1873,62 @@
     <row r="1" spans="1:17" s="7" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6"/>
       <c r="B1" s="15"/>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="20" t="s">
+      <c r="D1" s="24"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="20" t="s">
+      <c r="G1" s="24"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="20" t="s">
+      <c r="J1" s="24"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="21"/>
-      <c r="N1" s="22"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="25"/>
       <c r="O1" s="19"/>
       <c r="P1" s="19"/>
       <c r="Q1" s="19"/>
     </row>
     <row r="2" spans="1:17" s="7" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="22"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="24"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="J2" s="24"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="M2" s="24"/>
+      <c r="N2" s="25"/>
       <c r="O2" s="19"/>
       <c r="P2" s="19"/>
       <c r="Q2" s="19"/>
     </row>
     <row r="3" spans="1:17" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="21" t="s">
         <v>38</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -1884,7 +1991,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C226A2B-D92F-4CFA-A9D0-2BF000D5BA2C}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1912,54 +2019,62 @@
     <row r="1" spans="1:17" s="7" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6"/>
       <c r="B1" s="15"/>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="20" t="s">
+      <c r="D1" s="24"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="20" t="s">
+      <c r="G1" s="24"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="20" t="s">
+      <c r="J1" s="24"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="21"/>
-      <c r="N1" s="22"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="25"/>
       <c r="O1" s="19"/>
       <c r="P1" s="19"/>
       <c r="Q1" s="19"/>
     </row>
     <row r="2" spans="1:17" s="7" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="22"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="24"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="J2" s="24"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="M2" s="24"/>
+      <c r="N2" s="25"/>
       <c r="O2" s="19"/>
       <c r="P2" s="19"/>
       <c r="Q2" s="19"/>
     </row>
     <row r="3" spans="1:17" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="21" t="s">
         <v>38</v>
       </c>
       <c r="C3" s="8" t="s">

--- a/public/files/damage_variable_format.xlsx
+++ b/public/files/damage_variable_format.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ifdm\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D3559FD-1018-4684-AC62-CB35ABB152A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0392349E-948A-40D4-AD1E-01113461DCE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C3DB0ADD-626F-4EA4-9DDD-06E1B7C0644D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{C3DB0ADD-626F-4EA4-9DDD-06E1B7C0644D}"/>
   </bookViews>
   <sheets>
     <sheet name="INFORMATION" sheetId="8" r:id="rId1"/>
@@ -347,18 +347,6 @@
     <t>RP5</t>
   </si>
   <si>
-    <t>GP1</t>
-  </si>
-  <si>
-    <t>GP2</t>
-  </si>
-  <si>
-    <t>GP3</t>
-  </si>
-  <si>
-    <t>GP4</t>
-  </si>
-  <si>
     <t>GD1</t>
   </si>
   <si>
@@ -369,6 +357,18 @@
   </si>
   <si>
     <t>GD4</t>
+  </si>
+  <si>
+    <t>ID1</t>
+  </si>
+  <si>
+    <t>ID2</t>
+  </si>
+  <si>
+    <t>ID3</t>
+  </si>
+  <si>
+    <t>ID4</t>
   </si>
 </sst>
 </file>
@@ -633,13 +633,13 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1007,7 +1007,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01DAAC6D-0BFF-4516-9278-C8FCBFCAACB1}">
   <dimension ref="B2:T17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1152,60 +1152,60 @@
     <row r="1" spans="1:17" s="7" customFormat="1" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6"/>
       <c r="B1" s="15"/>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="26" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26" t="s">
+      <c r="G1" s="25"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="24"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="26" t="s">
+      <c r="J1" s="25"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="24"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="26" t="s">
+      <c r="M1" s="25"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="26"/>
     </row>
     <row r="2" spans="1:17" s="7" customFormat="1" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22"/>
       <c r="B2" s="23"/>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="26" t="s">
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="26" t="s">
+      <c r="G2" s="25"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="J2" s="24"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="26" t="s">
+      <c r="J2" s="25"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="M2" s="24"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="26" t="s">
+      <c r="M2" s="25"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="26"/>
     </row>
     <row r="3" spans="1:17" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
@@ -1352,16 +1352,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
     <mergeCell ref="O1:Q1"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="L1:N1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O2:Q2"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1400,60 +1400,60 @@
     <row r="1" spans="1:17" s="7" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6"/>
       <c r="B1" s="15"/>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="26" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26" t="s">
+      <c r="G1" s="25"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="24"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="26" t="s">
+      <c r="J1" s="25"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="24"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="26" t="s">
+      <c r="M1" s="25"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="26"/>
     </row>
     <row r="2" spans="1:17" s="7" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22"/>
       <c r="B2" s="23"/>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="26" t="s">
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="26" t="s">
+      <c r="G2" s="25"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="J2" s="24"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="26" t="s">
+      <c r="J2" s="25"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="M2" s="24"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="26" t="s">
+      <c r="M2" s="25"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="26"/>
     </row>
     <row r="3" spans="1:17" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
@@ -1510,16 +1510,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O2:Q2"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1558,60 +1558,60 @@
     <row r="1" spans="1:17" s="7" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6"/>
       <c r="B1" s="15"/>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="26" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26" t="s">
+      <c r="G1" s="25"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="24"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="26" t="s">
+      <c r="J1" s="25"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="24"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="26" t="s">
+      <c r="M1" s="25"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="26"/>
     </row>
     <row r="2" spans="1:17" s="7" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22"/>
       <c r="B2" s="23"/>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="26" t="s">
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="26" t="s">
+      <c r="G2" s="25"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="J2" s="24"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="26" t="s">
+      <c r="J2" s="25"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="M2" s="24"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="26" t="s">
+      <c r="M2" s="25"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="26"/>
     </row>
     <row r="3" spans="1:17" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
@@ -1668,16 +1668,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O2:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1715,60 +1715,60 @@
     <row r="1" spans="1:17" s="7" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6"/>
       <c r="B1" s="15"/>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="26" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26" t="s">
+      <c r="G1" s="25"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="24"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="26" t="s">
+      <c r="J1" s="25"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="24"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="26" t="s">
+      <c r="M1" s="25"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="26"/>
     </row>
     <row r="2" spans="1:17" s="7" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22"/>
       <c r="B2" s="23"/>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="26" t="s">
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="26" t="s">
+      <c r="G2" s="25"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="J2" s="24"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="26" t="s">
+      <c r="J2" s="25"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="M2" s="24"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="26" t="s">
+      <c r="M2" s="25"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="26"/>
     </row>
     <row r="3" spans="1:17" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
@@ -1825,16 +1825,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O2:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1845,7 +1845,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E157364B-164D-468E-89FF-A51557B38215}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:N2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1873,26 +1875,26 @@
     <row r="1" spans="1:17" s="7" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6"/>
       <c r="B1" s="15"/>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="26" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26" t="s">
+      <c r="G1" s="25"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="24"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="26" t="s">
+      <c r="J1" s="25"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="24"/>
-      <c r="N1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="26"/>
       <c r="O1" s="19"/>
       <c r="P1" s="19"/>
       <c r="Q1" s="19"/>
@@ -1900,26 +1902,26 @@
     <row r="2" spans="1:17" s="7" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22"/>
       <c r="B2" s="23"/>
-      <c r="C2" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="J2" s="24"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="M2" s="24"/>
-      <c r="N2" s="25"/>
+      <c r="C2" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" s="25"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="J2" s="25"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="M2" s="25"/>
+      <c r="N2" s="26"/>
       <c r="O2" s="19"/>
       <c r="P2" s="19"/>
       <c r="Q2" s="19"/>
@@ -2019,26 +2021,26 @@
     <row r="1" spans="1:17" s="7" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6"/>
       <c r="B1" s="15"/>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="26" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26" t="s">
+      <c r="G1" s="25"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="24"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="26" t="s">
+      <c r="J1" s="25"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="24"/>
-      <c r="N1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="26"/>
       <c r="O1" s="19"/>
       <c r="P1" s="19"/>
       <c r="Q1" s="19"/>
@@ -2046,26 +2048,26 @@
     <row r="2" spans="1:17" s="7" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22"/>
       <c r="B2" s="23"/>
-      <c r="C2" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="J2" s="24"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="M2" s="24"/>
-      <c r="N2" s="25"/>
+      <c r="C2" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="25"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="J2" s="25"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="M2" s="25"/>
+      <c r="N2" s="26"/>
       <c r="O2" s="19"/>
       <c r="P2" s="19"/>
       <c r="Q2" s="19"/>

--- a/public/files/damage_variable_format.xlsx
+++ b/public/files/damage_variable_format.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ifdm\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0392349E-948A-40D4-AD1E-01113461DCE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B35240C2-7374-4BE6-B0D2-1894136303C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{C3DB0ADD-626F-4EA4-9DDD-06E1B7C0644D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C3DB0ADD-626F-4EA4-9DDD-06E1B7C0644D}"/>
   </bookViews>
   <sheets>
     <sheet name="INFORMATION" sheetId="8" r:id="rId1"/>
@@ -633,13 +633,13 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1007,7 +1007,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01DAAC6D-0BFF-4516-9278-C8FCBFCAACB1}">
   <dimension ref="B2:T17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1152,60 +1152,60 @@
     <row r="1" spans="1:17" s="7" customFormat="1" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6"/>
       <c r="B1" s="15"/>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="24" t="s">
+      <c r="D1" s="24"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="25"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="24" t="s">
+      <c r="G1" s="24"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="25"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="24" t="s">
+      <c r="J1" s="24"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="25"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="24" t="s">
+      <c r="M1" s="24"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="26"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="25"/>
     </row>
     <row r="2" spans="1:17" s="7" customFormat="1" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22"/>
       <c r="B2" s="23"/>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="24" t="s">
+      <c r="D2" s="24"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="24" t="s">
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="J2" s="25"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="24" t="s">
+      <c r="J2" s="24"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="M2" s="25"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="24" t="s">
+      <c r="M2" s="24"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="26"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="25"/>
     </row>
     <row r="3" spans="1:17" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
@@ -1352,16 +1352,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1400,60 +1400,60 @@
     <row r="1" spans="1:17" s="7" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6"/>
       <c r="B1" s="15"/>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="24" t="s">
+      <c r="D1" s="24"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="25"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="24" t="s">
+      <c r="G1" s="24"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="25"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="24" t="s">
+      <c r="J1" s="24"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="25"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="24" t="s">
+      <c r="M1" s="24"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="26"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="25"/>
     </row>
     <row r="2" spans="1:17" s="7" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22"/>
       <c r="B2" s="23"/>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="24" t="s">
+      <c r="D2" s="24"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="24" t="s">
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="J2" s="25"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="24" t="s">
+      <c r="J2" s="24"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="M2" s="25"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="24" t="s">
+      <c r="M2" s="24"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="26"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="25"/>
     </row>
     <row r="3" spans="1:17" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
@@ -1510,16 +1510,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:Q1"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="O1:Q1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1558,60 +1558,60 @@
     <row r="1" spans="1:17" s="7" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6"/>
       <c r="B1" s="15"/>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="24" t="s">
+      <c r="D1" s="24"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="25"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="24" t="s">
+      <c r="G1" s="24"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="25"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="24" t="s">
+      <c r="J1" s="24"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="25"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="24" t="s">
+      <c r="M1" s="24"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="26"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="25"/>
     </row>
     <row r="2" spans="1:17" s="7" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22"/>
       <c r="B2" s="23"/>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="24" t="s">
+      <c r="D2" s="24"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="24" t="s">
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="J2" s="25"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="24" t="s">
+      <c r="J2" s="24"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="M2" s="25"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="24" t="s">
+      <c r="M2" s="24"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="26"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="25"/>
     </row>
     <row r="3" spans="1:17" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
@@ -1668,16 +1668,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:Q1"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="O1:Q1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1715,60 +1715,60 @@
     <row r="1" spans="1:17" s="7" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6"/>
       <c r="B1" s="15"/>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="24" t="s">
+      <c r="D1" s="24"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="25"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="24" t="s">
+      <c r="G1" s="24"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="25"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="24" t="s">
+      <c r="J1" s="24"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="25"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="24" t="s">
+      <c r="M1" s="24"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="26"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="25"/>
     </row>
     <row r="2" spans="1:17" s="7" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22"/>
       <c r="B2" s="23"/>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="24" t="s">
+      <c r="D2" s="24"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="24" t="s">
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="J2" s="25"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="24" t="s">
+      <c r="J2" s="24"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="M2" s="25"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="24" t="s">
+      <c r="M2" s="24"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="26"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="25"/>
     </row>
     <row r="3" spans="1:17" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
@@ -1825,16 +1825,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:Q1"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="O1:Q1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1845,9 +1845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E157364B-164D-468E-89FF-A51557B38215}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:N2"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1875,26 +1873,26 @@
     <row r="1" spans="1:17" s="7" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6"/>
       <c r="B1" s="15"/>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="24" t="s">
+      <c r="D1" s="24"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="25"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="24" t="s">
+      <c r="G1" s="24"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="25"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="24" t="s">
+      <c r="J1" s="24"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="25"/>
-      <c r="N1" s="26"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="25"/>
       <c r="O1" s="19"/>
       <c r="P1" s="19"/>
       <c r="Q1" s="19"/>
@@ -1902,26 +1900,26 @@
     <row r="2" spans="1:17" s="7" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22"/>
       <c r="B2" s="23"/>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="24" t="s">
+      <c r="D2" s="24"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="24" t="s">
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="J2" s="25"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="24" t="s">
+      <c r="J2" s="24"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="M2" s="25"/>
-      <c r="N2" s="26"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="25"/>
       <c r="O2" s="19"/>
       <c r="P2" s="19"/>
       <c r="Q2" s="19"/>
@@ -2021,26 +2019,26 @@
     <row r="1" spans="1:17" s="7" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6"/>
       <c r="B1" s="15"/>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="24" t="s">
+      <c r="D1" s="24"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="25"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="24" t="s">
+      <c r="G1" s="24"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="25"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="24" t="s">
+      <c r="J1" s="24"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="25"/>
-      <c r="N1" s="26"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="25"/>
       <c r="O1" s="19"/>
       <c r="P1" s="19"/>
       <c r="Q1" s="19"/>
@@ -2048,26 +2046,26 @@
     <row r="2" spans="1:17" s="7" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22"/>
       <c r="B2" s="23"/>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="24" t="s">
+      <c r="D2" s="24"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="24" t="s">
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="J2" s="25"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="24" t="s">
+      <c r="J2" s="24"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="M2" s="25"/>
-      <c r="N2" s="26"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="25"/>
       <c r="O2" s="19"/>
       <c r="P2" s="19"/>
       <c r="Q2" s="19"/>

--- a/public/files/damage_variable_format.xlsx
+++ b/public/files/damage_variable_format.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ifdm\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B35240C2-7374-4BE6-B0D2-1894136303C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB41C3D-DD1B-4C39-B708-04B917B844BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C3DB0ADD-626F-4EA4-9DDD-06E1B7C0644D}"/>
   </bookViews>
@@ -26,20 +26,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="74">
   <si>
     <t>Scale Index Of CaCO3</t>
   </si>
@@ -237,45 +229,6 @@
   </si>
   <si>
     <t>HERE AN EXAMPLE</t>
-  </si>
-  <si>
-    <t>APIAY-10</t>
-  </si>
-  <si>
-    <t>GUADALUPE</t>
-  </si>
-  <si>
-    <t>23/04/2017</t>
-  </si>
-  <si>
-    <t>23/04/2018</t>
-  </si>
-  <si>
-    <t>23/04/2019</t>
-  </si>
-  <si>
-    <t>Mi comentario 3</t>
-  </si>
-  <si>
-    <t>APIAY-13</t>
-  </si>
-  <si>
-    <t>APIAY-14</t>
-  </si>
-  <si>
-    <t>SAN FERNANDO</t>
-  </si>
-  <si>
-    <t>23/04/2020</t>
-  </si>
-  <si>
-    <t>23/04/2021</t>
-  </si>
-  <si>
-    <t>23/04/2022</t>
-  </si>
-  <si>
-    <t>Mi comentario 5</t>
   </si>
   <si>
     <t>Each added subparameter must contain on its row the corresponding "Well" and "Formation" names.</t>
@@ -633,13 +586,13 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1028,7 +981,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
@@ -1042,7 +995,7 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
@@ -1050,7 +1003,7 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
@@ -1123,7 +1076,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12E0E0E3-C76E-48E1-8909-3E6BA03FE236}">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1152,60 +1105,60 @@
     <row r="1" spans="1:17" s="7" customFormat="1" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6"/>
       <c r="B1" s="15"/>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="26" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26" t="s">
+      <c r="G1" s="25"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="24"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="26" t="s">
+      <c r="J1" s="25"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="24"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="26" t="s">
+      <c r="M1" s="25"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="26"/>
     </row>
     <row r="2" spans="1:17" s="7" customFormat="1" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22"/>
       <c r="B2" s="23"/>
-      <c r="C2" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="J2" s="24"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="M2" s="24"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="25"/>
+      <c r="C2" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="25"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="25"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" s="25"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="26"/>
     </row>
     <row r="3" spans="1:17" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
@@ -1260,108 +1213,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="12">
-        <v>1.2</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="12">
-        <v>1.3</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="12">
-        <v>1.4</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="12">
-        <v>1.6</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="12">
-        <v>1.7</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
     <mergeCell ref="O1:Q1"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="L1:N1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O2:Q2"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1400,60 +1263,60 @@
     <row r="1" spans="1:17" s="7" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6"/>
       <c r="B1" s="15"/>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="26" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26" t="s">
+      <c r="G1" s="25"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="24"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="26" t="s">
+      <c r="J1" s="25"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="24"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="26" t="s">
+      <c r="M1" s="25"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="26"/>
     </row>
     <row r="2" spans="1:17" s="7" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22"/>
       <c r="B2" s="23"/>
-      <c r="C2" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="J2" s="24"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="M2" s="24"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="25"/>
+      <c r="C2" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="25"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="25"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" s="25"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="26"/>
     </row>
     <row r="3" spans="1:17" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
@@ -1510,16 +1373,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O2:Q2"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1558,60 +1421,60 @@
     <row r="1" spans="1:17" s="7" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6"/>
       <c r="B1" s="15"/>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="26" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26" t="s">
+      <c r="G1" s="25"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="24"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="26" t="s">
+      <c r="J1" s="25"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="24"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="26" t="s">
+      <c r="M1" s="25"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="26"/>
     </row>
     <row r="2" spans="1:17" s="7" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22"/>
       <c r="B2" s="23"/>
-      <c r="C2" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="J2" s="24"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="M2" s="24"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="25"/>
+      <c r="C2" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="25"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="25"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="M2" s="25"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="26"/>
     </row>
     <row r="3" spans="1:17" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
@@ -1668,16 +1531,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O2:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1715,60 +1578,60 @@
     <row r="1" spans="1:17" s="7" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6"/>
       <c r="B1" s="15"/>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="26" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26" t="s">
+      <c r="G1" s="25"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="24"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="26" t="s">
+      <c r="J1" s="25"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="24"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="26" t="s">
+      <c r="M1" s="25"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="26"/>
     </row>
     <row r="2" spans="1:17" s="7" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22"/>
       <c r="B2" s="23"/>
-      <c r="C2" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="J2" s="24"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="M2" s="24"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="25"/>
+      <c r="C2" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="25"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" s="25"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="M2" s="25"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="26"/>
     </row>
     <row r="3" spans="1:17" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
@@ -1825,16 +1688,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O2:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1873,26 +1736,26 @@
     <row r="1" spans="1:17" s="7" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6"/>
       <c r="B1" s="15"/>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="26" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26" t="s">
+      <c r="G1" s="25"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="24"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="26" t="s">
+      <c r="J1" s="25"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="24"/>
-      <c r="N1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="26"/>
       <c r="O1" s="19"/>
       <c r="P1" s="19"/>
       <c r="Q1" s="19"/>
@@ -1900,26 +1763,26 @@
     <row r="2" spans="1:17" s="7" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22"/>
       <c r="B2" s="23"/>
-      <c r="C2" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="J2" s="24"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="M2" s="24"/>
-      <c r="N2" s="25"/>
+      <c r="C2" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="25"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" s="25"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="M2" s="25"/>
+      <c r="N2" s="26"/>
       <c r="O2" s="19"/>
       <c r="P2" s="19"/>
       <c r="Q2" s="19"/>
@@ -2019,26 +1882,26 @@
     <row r="1" spans="1:17" s="7" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6"/>
       <c r="B1" s="15"/>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="26" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26" t="s">
+      <c r="G1" s="25"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="24"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="26" t="s">
+      <c r="J1" s="25"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="24"/>
-      <c r="N1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="26"/>
       <c r="O1" s="19"/>
       <c r="P1" s="19"/>
       <c r="Q1" s="19"/>
@@ -2046,26 +1909,26 @@
     <row r="2" spans="1:17" s="7" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22"/>
       <c r="B2" s="23"/>
-      <c r="C2" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="J2" s="24"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="M2" s="24"/>
-      <c r="N2" s="25"/>
+      <c r="C2" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="25"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" s="25"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="M2" s="25"/>
+      <c r="N2" s="26"/>
       <c r="O2" s="19"/>
       <c r="P2" s="19"/>
       <c r="Q2" s="19"/>
